--- a/biology/Histoire de la zoologie et de la botanique/Frank_Oates/Frank_Oates.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frank_Oates/Frank_Oates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Oates (né en 1840 près de Leeds et mort en 1875) était un naturaliste et explorateur britannique, également oncle de l'explorateur de l'Antarctique Lawrence Oates. Il fut l'un des premiers Européens à voir les Chutes Victoria.
 Il a fait ses études à Christ Church mais sa santé fragile ne lui permit pas de poursuivre son éducation.
